--- a/config_4.6/permission_server_config.xlsx
+++ b/config_4.6/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5088" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2208">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9577,516 +9577,568 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>疯狂敲金蛋V3以下</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋V4V7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋V8V12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于V3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_class_new_player</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年1月18日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年1月18日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年1月18日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_gdn_004_jzbd_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_004_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集字榜单--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐争霸--cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_2</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_3</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_4</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_5</t>
+  </si>
+  <si>
+    <t>小游戏托管-10次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-30次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-50次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-100次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管-20次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_show_gift_bag_xyfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>全cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年2月12日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d捕鱼cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_free_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神模式下注10000鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神模式下注20万鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神模式下注100万鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神模式下注500万鲸币</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利（欢乐捕鱼）--非cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_dynamic_codi|条件是否动态达成，TRUE第一次及其以后某个身份   FALSE第一次的获得这个任务的身份</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年3月15日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj且大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年3月15日23:59:59结束</t>
+  </si>
+  <si>
+    <t>小于等于V3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrxsfl_hlby</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xrxsfl_cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利（欢乐捕鱼）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj且大于V5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v4v12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是CPL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_1000276</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_95</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探险新人权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间为3.9号8点以后登录的新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_enter_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏托管限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年3月22日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v3_normal</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_normal</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v3_cjj</t>
+  </si>
+  <si>
+    <t>actp_own_task_p_xsfl_v4v12_cjj</t>
+  </si>
+  <si>
+    <t>限时福利v3及以下--捕鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时福利v4及以上--捕鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时福利v3及以下--冲金鸡</t>
+  </si>
+  <si>
+    <t>限时福利v4及以上--冲金鸡</t>
+  </si>
+  <si>
+    <t>大于等于V4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘官方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥秘ALL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"normal","byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"xiaomi_byam","yyb_byam",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星排行榜--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_ymkh_010_wxphb_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_007_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjby_drop_limit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼掉落权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于捕鱼奥秘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐爬塔宝箱限制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sgxxl_tower_box</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是3D捕鱼CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐  V1orLV4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是cpl渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_cpl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vivo","xiaomi","yyb_hlttby",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_v0_up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖VIP0玩家概率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖VIP0以上玩家概率</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vip0的用户才可体验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_exchange_v0_down</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_buy_gift_bag_class_golden_egg_3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>疯狂敲金蛋V3以下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂敲金蛋V4V7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂敲金蛋V8V12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小于V3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于V4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_class_new_player</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年1月18日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年1月18日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年1月18日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_gdn_004_jzbd_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xxlzb_004_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>集字榜单--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>消消乐争霸--cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年2月12日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年2月12日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_2</t>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_3</t>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_4</t>
-  </si>
-  <si>
-    <t>xyxtg_bet_limit_5</t>
-  </si>
-  <si>
-    <t>小游戏托管-10次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管-30次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管-50次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管-100次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管-20次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_show_gift_bag_xyfl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>全cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年2月12日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3d捕鱼cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_free_002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式下注10000鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式下注20万鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式下注100万鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神模式下注500万鲸币</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐福利（欢乐捕鱼）--非cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_dynamic_codi|条件是否动态达成，TRUE第一次及其以后某个身份   FALSE第一次的获得这个任务的身份</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年3月15日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjj且大于V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年3月15日23:59:59结束</t>
-  </si>
-  <si>
-    <t>小于等于V3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于等于V4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大于V4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_xrxsfl_hlby</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_xrxsfl_cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人限时福利（欢乐捕鱼）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人限时福利（冲金鸡）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非cjj且大于V5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v4v12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_gehk_v3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是CPL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_1000276</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_95</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海探险新人权限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_delay</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间为3.9号8点以后登录的新玩家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xyxtg_enter_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏托管限制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年3月22日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_xsfl_v3_normal</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_xsfl_v4v12_normal</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_xsfl_v3_cjj</t>
-  </si>
-  <si>
-    <t>actp_own_task_p_xsfl_v4v12_cjj</t>
-  </si>
-  <si>
-    <t>限时福利v3及以下--捕鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时福利v4及以上--捕鱼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时福利v3及以下--冲金鸡</t>
-  </si>
-  <si>
-    <t>限时福利v4及以上--冲金鸡</t>
-  </si>
-  <si>
-    <t>大于等于V4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>now</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cps</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘CPS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥秘ALL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是捕鱼奥秘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"normal","byam",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"xiaomi_byam","yyb_byam",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星排行榜--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_ymkh_010_wxphb_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_xxlzb_007_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjby_drop_limit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>街机捕鱼掉落权限</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_all</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不等于捕鱼奥秘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐爬塔宝箱限制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>sgxxl_tower_box</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是3D捕鱼CPS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>西游消消乐  V1orLV4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_official</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是cpl渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv4开启，在3D捕鱼中开炮可提升等级！\n（VIP1可以立即解锁）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>byam_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vivo","xiaomi","yyb_hlttby",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_exchange_v0_up</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖VIP0玩家概率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖VIP0以上玩家概率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vip0的用户才可体验</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_exchange_v0_down</t>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_nor</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（新玩家，免费，小额）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（v1-v3，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（v4-v7，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买（v8-12，非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_buy_gift_shop_v8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包购买权限模板，永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP7及以下的用户才可体验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP8及以上的用户才可体验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP12及以下的用户才可体验</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10931,7 +10983,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q478"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A478" sqref="A478"/>
     </sheetView>
@@ -11952,7 +12004,7 @@
         <v>111</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C59" s="9">
         <v>22</v>
@@ -11967,7 +12019,7 @@
         <v>112</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C60" s="9">
         <v>22</v>
@@ -11982,7 +12034,7 @@
         <v>113</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="C61" s="9">
         <v>22</v>
@@ -11997,7 +12049,7 @@
         <v>114</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="C62" s="9">
         <v>24</v>
@@ -12011,7 +12063,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -12025,7 +12077,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C64" s="9">
         <v>22</v>
@@ -12040,7 +12092,7 @@
         <v>117</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C65" s="53">
         <v>22</v>
@@ -12055,7 +12107,7 @@
         <v>118</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C66" s="53">
         <v>23</v>
@@ -12069,7 +12121,7 @@
         <v>119</v>
       </c>
       <c r="B67" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C67" s="9">
         <v>24</v>
@@ -12087,7 +12139,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C68" s="9">
         <v>25</v>
@@ -14914,7 +14966,7 @@
         <v>1868</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -15076,7 +15128,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="27" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B383" s="27" t="s">
         <v>1720</v>
@@ -15701,18 +15753,18 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="3" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B466" s="27" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C466" s="3">
         <v>22</v>
@@ -15720,10 +15772,10 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="3" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B467" s="27" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C467" s="3">
         <v>23</v>
@@ -15731,10 +15783,10 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="3" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C468" s="3">
         <v>24</v>
@@ -15742,10 +15794,10 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="3" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C469" s="3">
         <v>26</v>
@@ -15753,10 +15805,10 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B471" s="3" t="s">
         <v>2135</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>2136</v>
       </c>
       <c r="C471" s="3">
         <v>22</v>
@@ -15764,10 +15816,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B473" s="3" t="s">
         <v>2171</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>2172</v>
       </c>
       <c r="C473" s="3">
         <v>410</v>
@@ -15775,10 +15827,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="3" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="C475" s="3">
         <v>23</v>
@@ -15786,10 +15838,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="27" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B477" s="27" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C477" s="3">
         <v>411</v>
@@ -15797,10 +15849,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="27" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B478" s="27" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C478" s="3">
         <v>412</v>
@@ -15816,13 +15868,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O378"/>
+  <dimension ref="A1:O382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C375" sqref="C375:D378"/>
+      <selection pane="bottomRight" activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15864,7 +15916,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>450</v>
@@ -25675,7 +25727,7 @@
         <v>1615248000</v>
       </c>
       <c r="L289" s="72" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="290" spans="1:12" s="73" customFormat="1">
@@ -25709,7 +25761,7 @@
         <v>1615248000</v>
       </c>
       <c r="L290" s="71" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="291" spans="1:12" s="73" customFormat="1">
@@ -25743,7 +25795,7 @@
         <v>1615248000</v>
       </c>
       <c r="L291" s="71" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="292" spans="1:12" s="73" customFormat="1">
@@ -25777,7 +25829,7 @@
         <v>1615248000</v>
       </c>
       <c r="L292" s="71" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -27109,7 +27161,7 @@
         <v>1833</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -27481,7 +27533,7 @@
         <v>1</v>
       </c>
       <c r="J345" s="16" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="K345" s="17">
         <v>1598889600</v>
@@ -27619,7 +27671,7 @@
         <v>1610409600</v>
       </c>
       <c r="L349" s="16" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="350" spans="1:12" s="45" customFormat="1">
@@ -27653,7 +27705,7 @@
         <v>1610409600</v>
       </c>
       <c r="L350" s="16" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="351" spans="1:12" s="45" customFormat="1">
@@ -27664,10 +27716,10 @@
         <v>1</v>
       </c>
       <c r="C351" s="66" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D351" s="66" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E351" s="66"/>
       <c r="F351" s="66"/>
@@ -27687,7 +27739,7 @@
         <v>1610380800</v>
       </c>
       <c r="L351" s="66" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="352" spans="1:12" s="45" customFormat="1">
@@ -27721,7 +27773,7 @@
         <v>1610380800</v>
       </c>
       <c r="L352" s="66" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="353" spans="1:12" s="45" customFormat="1">
@@ -27766,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D354" s="16" t="s">
         <v>2034</v>
@@ -27800,7 +27852,7 @@
         <v>0</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D355" s="16" t="s">
         <v>2036</v>
@@ -27834,7 +27886,7 @@
         <v>0</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D356" s="16" t="s">
         <v>2038</v>
@@ -27939,7 +27991,7 @@
         <v>2062</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E359" s="16"/>
       <c r="F359" s="16"/>
@@ -27973,7 +28025,7 @@
         <v>2063</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="E360" s="16"/>
       <c r="F360" s="16"/>
@@ -28004,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2064</v>
+        <v>2194</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="E361" s="16"/>
       <c r="F361" s="16"/>
@@ -28038,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="106" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D362" s="16" t="s">
         <v>2055</v>
@@ -28072,10 +28124,10 @@
         <v>0</v>
       </c>
       <c r="C363" s="31" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -28095,7 +28147,7 @@
         <v>1612828800</v>
       </c>
       <c r="L363" s="16" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="364" spans="1:12" s="22" customFormat="1">
@@ -28106,10 +28158,10 @@
         <v>0</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D364" s="16" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E364" s="17"/>
       <c r="F364" s="17"/>
@@ -28129,7 +28181,7 @@
         <v>1612828800</v>
       </c>
       <c r="L364" s="16" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="365" spans="1:12" s="22" customFormat="1">
@@ -28140,10 +28192,10 @@
         <v>0</v>
       </c>
       <c r="C365" s="31" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D365" s="16" t="s">
         <v>2093</v>
-      </c>
-      <c r="D365" s="16" t="s">
-        <v>2094</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -28163,7 +28215,7 @@
         <v>1612828800</v>
       </c>
       <c r="L365" s="16" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="366" spans="1:12" s="22" customFormat="1">
@@ -28174,10 +28226,10 @@
         <v>1</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D366" s="16" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E366" s="17"/>
       <c r="F366" s="17"/>
@@ -28197,7 +28249,7 @@
         <v>1615852800</v>
       </c>
       <c r="L366" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="367" spans="1:12" s="22" customFormat="1">
@@ -28208,10 +28260,10 @@
         <v>1</v>
       </c>
       <c r="C367" s="16" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D367" s="16" t="s">
         <v>2114</v>
-      </c>
-      <c r="D367" s="16" t="s">
-        <v>2115</v>
       </c>
       <c r="E367" s="17"/>
       <c r="F367" s="17"/>
@@ -28231,7 +28283,7 @@
         <v>1615852800</v>
       </c>
       <c r="L367" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="368" spans="1:12" s="22" customFormat="1">
@@ -28242,10 +28294,10 @@
         <v>0</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D368" s="16" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E368" s="17"/>
       <c r="F368" s="17"/>
@@ -28265,7 +28317,7 @@
         <v>1615248000</v>
       </c>
       <c r="L368" s="16" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="369" spans="1:12" s="22" customFormat="1">
@@ -28276,10 +28328,10 @@
         <v>0</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D369" s="16" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E369" s="17"/>
       <c r="F369" s="17"/>
@@ -28299,7 +28351,7 @@
         <v>1615248000</v>
       </c>
       <c r="L369" s="16" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="370" spans="1:12" s="22" customFormat="1">
@@ -28310,10 +28362,10 @@
         <v>1</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D370" s="16" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E370" s="17"/>
       <c r="F370" s="17"/>
@@ -28344,10 +28396,10 @@
         <v>1</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D371" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E371" s="17"/>
       <c r="F371" s="17"/>
@@ -28378,10 +28430,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28401,7 +28453,7 @@
         <v>1615824000</v>
       </c>
       <c r="L372" s="66" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="373" spans="1:12" s="67" customFormat="1">
@@ -28412,10 +28464,10 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E373" s="65"/>
       <c r="F373" s="65"/>
@@ -28435,7 +28487,7 @@
         <v>1615824000</v>
       </c>
       <c r="L373" s="66" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="374" spans="1:12" s="22" customFormat="1">
@@ -28446,10 +28498,10 @@
         <v>1</v>
       </c>
       <c r="C374" s="17" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D374" s="17" t="s">
         <v>2131</v>
-      </c>
-      <c r="D374" s="17" t="s">
-        <v>2132</v>
       </c>
       <c r="E374" s="17"/>
       <c r="F374" s="17"/>
@@ -28463,7 +28515,7 @@
         <v>1</v>
       </c>
       <c r="J374" s="17" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="K374" s="17">
         <v>1615248000</v>
@@ -28478,10 +28530,10 @@
         <v>1</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D375" s="16" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E375" s="17"/>
       <c r="F375" s="17"/>
@@ -28501,7 +28553,7 @@
         <v>1615824000</v>
       </c>
       <c r="L375" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="376" spans="1:12" s="22" customFormat="1">
@@ -28512,10 +28564,10 @@
         <v>1</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D376" s="16" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E376" s="17"/>
       <c r="F376" s="17"/>
@@ -28535,7 +28587,7 @@
         <v>1615824000</v>
       </c>
       <c r="L376" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="377" spans="1:12" s="22" customFormat="1">
@@ -28546,10 +28598,10 @@
         <v>1</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D377" s="16" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E377" s="17"/>
       <c r="F377" s="17"/>
@@ -28569,7 +28621,7 @@
         <v>1615824000</v>
       </c>
       <c r="L377" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="378" spans="1:12" s="22" customFormat="1">
@@ -28580,10 +28632,10 @@
         <v>1</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E378" s="17"/>
       <c r="F378" s="17"/>
@@ -28603,7 +28655,135 @@
         <v>1615824000</v>
       </c>
       <c r="L378" s="16" t="s">
-        <v>2137</v>
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="A379" s="17">
+        <v>378</v>
+      </c>
+      <c r="B379" s="17">
+        <v>1</v>
+      </c>
+      <c r="C379" s="30" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D379" s="30" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G379" s="26">
+        <v>413</v>
+      </c>
+      <c r="H379" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I379" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J379" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K379" s="26">
+        <v>1617638400</v>
+      </c>
+      <c r="L379" s="30" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="A380" s="16">
+        <v>379</v>
+      </c>
+      <c r="B380" s="17">
+        <v>1</v>
+      </c>
+      <c r="C380" s="30" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D380" s="30" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G380" s="26">
+        <v>414</v>
+      </c>
+      <c r="H380" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I380" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J380" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K380" s="26">
+        <v>1617638400</v>
+      </c>
+      <c r="L380" s="30" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="A381" s="17">
+        <v>380</v>
+      </c>
+      <c r="B381" s="17">
+        <v>1</v>
+      </c>
+      <c r="C381" s="30" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D381" s="30" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G381" s="26">
+        <v>415</v>
+      </c>
+      <c r="H381" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I381" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J381" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K381" s="26">
+        <v>1617638400</v>
+      </c>
+      <c r="L381" s="30" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="A382" s="16">
+        <v>381</v>
+      </c>
+      <c r="B382" s="17">
+        <v>1</v>
+      </c>
+      <c r="C382" s="30" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D382" s="30" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G382" s="26">
+        <v>416</v>
+      </c>
+      <c r="H382" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I382" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J382" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K382" s="26">
+        <v>1617638400</v>
+      </c>
+      <c r="L382" s="30" t="s">
+        <v>2203</v>
       </c>
     </row>
   </sheetData>
@@ -28617,13 +28797,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1001"/>
+  <dimension ref="A1:I1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C971" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C992" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A997" sqref="A997:A1001"/>
+      <selection pane="bottomRight" activeCell="E1021" sqref="E1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32787,7 +32967,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -32842,7 +33022,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="8" customFormat="1">
@@ -32856,7 +33036,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="80" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E182" s="14">
         <v>2</v>
@@ -32865,7 +33045,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="8" customFormat="1">
@@ -33313,7 +33493,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="91" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E201" s="89">
         <v>2</v>
@@ -48440,7 +48620,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="10" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E829" s="8">
         <v>2</v>
@@ -48449,7 +48629,7 @@
         <v>4</v>
       </c>
       <c r="G829" s="10" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="H829" s="8"/>
       <c r="I829" s="8"/>
@@ -48849,7 +49029,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="93" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="H845" s="8"/>
       <c r="I845" s="8"/>
@@ -48915,7 +49095,7 @@
         <v>1032</v>
       </c>
       <c r="D848" s="93" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E848" s="92">
         <v>2</v>
@@ -48965,7 +49145,7 @@
         <v>1032</v>
       </c>
       <c r="D850" s="15" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E850" s="14">
         <v>5</v>
@@ -49280,7 +49460,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="8" customFormat="1">
@@ -49326,7 +49506,7 @@
         <v>2</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
@@ -49736,7 +49916,7 @@
         <v>1142</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -49782,7 +49962,7 @@
         <v>1142</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -51018,7 +51198,7 @@
         <v>1142</v>
       </c>
       <c r="D935" s="10" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E935" s="8">
         <v>2</v>
@@ -51041,7 +51221,7 @@
         <v>1142</v>
       </c>
       <c r="D936" s="10" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E936" s="8">
         <v>2</v>
@@ -51087,7 +51267,7 @@
         <v>1142</v>
       </c>
       <c r="D938" s="10" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E938" s="8">
         <v>2</v>
@@ -51606,7 +51786,7 @@
         <v>2061</v>
       </c>
       <c r="D960" s="10" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E960" s="8">
         <v>5</v>
@@ -51629,7 +51809,7 @@
         <v>2061</v>
       </c>
       <c r="D961" s="10" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E961" s="8">
         <v>2</v>
@@ -51684,7 +51864,7 @@
         <v>2</v>
       </c>
       <c r="G963" s="10" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="964" spans="1:7" s="8" customFormat="1">
@@ -51707,7 +51887,7 @@
         <v>1</v>
       </c>
       <c r="G964" s="10" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="965" spans="1:7" s="8" customFormat="1">
@@ -51787,7 +51967,7 @@
         <v>391</v>
       </c>
       <c r="C968" s="10" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D968" s="8">
         <v>12</v>
@@ -51868,7 +52048,7 @@
         <v>1</v>
       </c>
       <c r="G971" s="10" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="972" spans="1:7" s="8" customFormat="1">
@@ -51891,7 +52071,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="10" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="973" spans="1:7" s="8" customFormat="1">
@@ -51914,7 +52094,7 @@
         <v>1</v>
       </c>
       <c r="G973" s="10" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="974" spans="1:7" s="8" customFormat="1">
@@ -51937,7 +52117,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="8" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="975" spans="1:7" s="8" customFormat="1">
@@ -51960,7 +52140,7 @@
         <v>2</v>
       </c>
       <c r="G975" s="10" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="976" spans="1:7" s="8" customFormat="1">
@@ -51983,7 +52163,7 @@
         <v>2</v>
       </c>
       <c r="G976" s="10" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="977" spans="1:9" s="8" customFormat="1">
@@ -52029,7 +52209,7 @@
         <v>2</v>
       </c>
       <c r="G978" s="10" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="979" spans="1:9" s="8" customFormat="1">
@@ -52100,7 +52280,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H981" s="8"/>
       <c r="I981" s="8"/>
@@ -52154,7 +52334,7 @@
         <v>1</v>
       </c>
       <c r="G983" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H983" s="8" t="s">
         <v>863</v>
@@ -52183,7 +52363,7 @@
         <v>1</v>
       </c>
       <c r="G984" s="21" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="985" spans="1:9" s="8" customFormat="1">
@@ -52206,7 +52386,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="21" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="986" spans="1:9" s="8" customFormat="1">
@@ -52229,7 +52409,7 @@
         <v>1</v>
       </c>
       <c r="G986" s="8" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="987" spans="1:9" s="8" customFormat="1">
@@ -52252,7 +52432,7 @@
         <v>1</v>
       </c>
       <c r="G987" s="10" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="988" spans="1:9" s="8" customFormat="1">
@@ -52275,7 +52455,7 @@
         <v>1</v>
       </c>
       <c r="G988" s="8" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="989" spans="1:9" s="8" customFormat="1">
@@ -52289,7 +52469,7 @@
         <v>1142</v>
       </c>
       <c r="D989" s="95" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E989" s="8">
         <v>2</v>
@@ -52298,7 +52478,7 @@
         <v>1</v>
       </c>
       <c r="G989" s="10" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -52321,7 +52501,7 @@
         <v>1</v>
       </c>
       <c r="G990" s="49" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="991" spans="1:9">
@@ -52344,7 +52524,7 @@
         <v>1</v>
       </c>
       <c r="G991" s="21" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="992" spans="1:9">
@@ -52367,7 +52547,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="21" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -52390,7 +52570,7 @@
         <v>1</v>
       </c>
       <c r="G993" s="21" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -52436,7 +52616,7 @@
         <v>1</v>
       </c>
       <c r="G995" s="21" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -52482,7 +52662,7 @@
         <v>1</v>
       </c>
       <c r="G997" s="21" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -52519,7 +52699,7 @@
         <v>1142</v>
       </c>
       <c r="D999" s="9" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E999" s="9">
         <v>5</v>
@@ -52528,7 +52708,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="9" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -52539,7 +52719,7 @@
         <v>411</v>
       </c>
       <c r="C1000" s="49" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D1000" s="9">
         <v>0</v>
@@ -52551,7 +52731,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="49" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -52575,6 +52755,282 @@
       </c>
       <c r="G1001" s="49" t="s">
         <v>1119</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7">
+      <c r="A1002" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B1002" s="9">
+        <v>413</v>
+      </c>
+      <c r="C1002" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1002" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1002" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1002" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1002" s="10" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7">
+      <c r="A1003" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B1003" s="9">
+        <v>413</v>
+      </c>
+      <c r="C1003" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1003" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="E1003" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1003" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1003" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7">
+      <c r="A1004" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B1004" s="9">
+        <v>413</v>
+      </c>
+      <c r="C1004" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1004" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="E1004" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1004" s="8">
+        <v>3</v>
+      </c>
+      <c r="G1004" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7">
+      <c r="A1005" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B1005" s="9">
+        <v>414</v>
+      </c>
+      <c r="C1005" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1005" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1005" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1005" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1005" s="10" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7">
+      <c r="A1006" s="8">
+        <v>1005</v>
+      </c>
+      <c r="B1006" s="9">
+        <v>414</v>
+      </c>
+      <c r="C1006" s="49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1006" s="9">
+        <v>1</v>
+      </c>
+      <c r="E1006" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1006" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1006" s="49" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7">
+      <c r="A1007" s="8">
+        <v>1006</v>
+      </c>
+      <c r="B1007" s="9">
+        <v>414</v>
+      </c>
+      <c r="C1007" s="49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1007" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1007" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1007" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1007" s="49" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7">
+      <c r="A1008" s="8">
+        <v>1007</v>
+      </c>
+      <c r="B1008" s="9">
+        <v>415</v>
+      </c>
+      <c r="C1008" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1008" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1008" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1008" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1008" s="10" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7">
+      <c r="A1009" s="8">
+        <v>1008</v>
+      </c>
+      <c r="B1009" s="9">
+        <v>415</v>
+      </c>
+      <c r="C1009" s="49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1009" s="9">
+        <v>4</v>
+      </c>
+      <c r="E1009" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1009" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1009" s="49" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7">
+      <c r="A1010" s="8">
+        <v>1009</v>
+      </c>
+      <c r="B1010" s="9">
+        <v>415</v>
+      </c>
+      <c r="C1010" s="49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1010" s="9">
+        <v>7</v>
+      </c>
+      <c r="E1010" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1010" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1010" s="49" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7">
+      <c r="A1011" s="8">
+        <v>1010</v>
+      </c>
+      <c r="B1011" s="9">
+        <v>416</v>
+      </c>
+      <c r="C1011" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1011" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1011" s="8">
+        <v>5</v>
+      </c>
+      <c r="F1011" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1011" s="10" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7">
+      <c r="A1012" s="8">
+        <v>1011</v>
+      </c>
+      <c r="B1012" s="9">
+        <v>416</v>
+      </c>
+      <c r="C1012" s="49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1012" s="9">
+        <v>8</v>
+      </c>
+      <c r="E1012" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1012" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1012" s="49" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7">
+      <c r="A1013" s="8">
+        <v>1012</v>
+      </c>
+      <c r="B1013" s="9">
+        <v>416</v>
+      </c>
+      <c r="C1013" s="49" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D1013" s="9">
+        <v>12</v>
+      </c>
+      <c r="E1013" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1013" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1013" s="49" t="s">
+        <v>2207</v>
       </c>
     </row>
   </sheetData>
@@ -52730,7 +53186,7 @@
         <v>884</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -52747,13 +53203,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1723</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -52776,7 +53232,7 @@
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -52862,22 +53318,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>2150</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -52885,13 +53341,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -52900,7 +53356,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -52908,13 +53364,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -52923,7 +53379,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -52931,13 +53387,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>884</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -52946,7 +53402,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.6/permission_server_config.xlsx
+++ b/config_4.6/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2208">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9970,14 +9970,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>五星排行榜--非cjj</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_rank_ymkh_010_wxphb_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10139,6 +10131,14 @@
   </si>
   <si>
     <t>actp_rank_xxlzb_009_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_ltqf_012_fqdr_rank</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>福气达人--非cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -14966,7 +14966,7 @@
         <v>1868</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -15816,10 +15816,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="3" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="C473" s="3">
         <v>410</v>
@@ -15827,10 +15827,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="3" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="C475" s="3">
         <v>23</v>
@@ -15838,10 +15838,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="27" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="B477" s="27" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="C477" s="3">
         <v>411</v>
@@ -15849,10 +15849,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="27" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B478" s="27" t="s">
         <v>2187</v>
-      </c>
-      <c r="B478" s="27" t="s">
-        <v>2189</v>
       </c>
       <c r="C478" s="3">
         <v>412</v>
@@ -15874,7 +15874,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D384" sqref="D384"/>
+      <selection pane="bottomRight" activeCell="D372" sqref="D372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="D361" s="16" t="s">
         <v>2066</v>
@@ -28430,10 +28430,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
-        <v>2166</v>
+        <v>2206</v>
       </c>
       <c r="D372" s="66" t="s">
-        <v>2165</v>
+        <v>2207</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28464,7 +28464,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="D373" s="66" t="s">
         <v>2077</v>
@@ -28666,10 +28666,10 @@
         <v>1</v>
       </c>
       <c r="C379" s="30" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="D379" s="30" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="G379" s="26">
         <v>413</v>
@@ -28687,7 +28687,7 @@
         <v>1617638400</v>
       </c>
       <c r="L379" s="30" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -28698,10 +28698,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="30" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D380" s="30" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="G380" s="26">
         <v>414</v>
@@ -28719,7 +28719,7 @@
         <v>1617638400</v>
       </c>
       <c r="L380" s="30" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -28730,10 +28730,10 @@
         <v>1</v>
       </c>
       <c r="C381" s="30" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D381" s="30" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="G381" s="26">
         <v>415</v>
@@ -28751,7 +28751,7 @@
         <v>1617638400</v>
       </c>
       <c r="L381" s="30" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -28762,10 +28762,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="30" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="D382" s="30" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="G382" s="26">
         <v>416</v>
@@ -28783,7 +28783,7 @@
         <v>1617638400</v>
       </c>
       <c r="L382" s="30" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
   </sheetData>
@@ -32967,7 +32967,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -33022,7 +33022,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="8" customFormat="1">
@@ -33036,7 +33036,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="80" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="E182" s="14">
         <v>2</v>
@@ -33045,7 +33045,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="8" customFormat="1">
@@ -33493,7 +33493,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="91" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="E201" s="89">
         <v>2</v>
@@ -49029,7 +49029,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="93" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="H845" s="8"/>
       <c r="I845" s="8"/>
@@ -49095,7 +49095,7 @@
         <v>1032</v>
       </c>
       <c r="D848" s="93" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E848" s="92">
         <v>2</v>
@@ -49460,7 +49460,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="8" customFormat="1">
@@ -49506,7 +49506,7 @@
         <v>2</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
@@ -49916,7 +49916,7 @@
         <v>1142</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -49962,7 +49962,7 @@
         <v>1142</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -52699,7 +52699,7 @@
         <v>1142</v>
       </c>
       <c r="D999" s="9" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="E999" s="9">
         <v>5</v>
@@ -52708,7 +52708,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="9" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -52719,7 +52719,7 @@
         <v>411</v>
       </c>
       <c r="C1000" s="49" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="D1000" s="9">
         <v>0</v>
@@ -52731,7 +52731,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="49" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -52846,7 +52846,7 @@
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1006" spans="1:7">
@@ -52915,7 +52915,7 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1009" spans="1:7">
@@ -52961,7 +52961,7 @@
         <v>1</v>
       </c>
       <c r="G1010" s="49" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -52984,7 +52984,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -53007,7 +53007,7 @@
         <v>1</v>
       </c>
       <c r="G1012" s="49" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -53030,7 +53030,7 @@
         <v>1</v>
       </c>
       <c r="G1013" s="49" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
   </sheetData>
@@ -53186,7 +53186,7 @@
         <v>884</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -53203,7 +53203,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1723</v>
@@ -53232,7 +53232,7 @@
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="E8">
         <v>2</v>

--- a/config_4.6/permission_server_config.xlsx
+++ b/config_4.6/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5141" uniqueCount="2211">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10139,6 +10139,18 @@
   </si>
   <si>
     <t>福气达人--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner_ggxt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner和插图广告系统（免费玩家-非新玩家）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是新玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10981,11 +10993,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q478"/>
+  <dimension ref="A1:Q480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A478" sqref="A478"/>
+      <selection pane="bottomLeft" activeCell="C481" sqref="C481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15858,6 +15870,17 @@
         <v>412</v>
       </c>
     </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C480" s="3">
+        <v>417</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15870,7 +15893,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -28797,13 +28820,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1013"/>
+  <dimension ref="A1:I1015"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C992" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1021" sqref="E1021"/>
+      <selection pane="bottomRight" activeCell="G1015" sqref="G1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53031,6 +53054,52 @@
       </c>
       <c r="G1013" s="49" t="s">
         <v>2204</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7">
+      <c r="A1014" s="8">
+        <v>1013</v>
+      </c>
+      <c r="B1014" s="9">
+        <v>417</v>
+      </c>
+      <c r="C1014" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1014" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1014" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1014" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1014" s="9" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7">
+      <c r="A1015" s="8">
+        <v>1014</v>
+      </c>
+      <c r="B1015" s="9">
+        <v>417</v>
+      </c>
+      <c r="C1015" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1015" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1015" s="9">
+        <v>2</v>
+      </c>
+      <c r="F1015" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1015" s="9" t="s">
+        <v>2210</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.6/permission_server_config.xlsx
+++ b/config_4.6/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="2208">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -9978,10 +9978,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_xxlzb_007_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_official</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10139,6 +10135,10 @@
   </si>
   <si>
     <t>VIP12及以下的用户才可体验</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xxlzb_009_rank</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -14966,7 +14966,7 @@
         <v>1868</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C356" s="3">
         <v>343</v>
@@ -15816,10 +15816,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B473" s="3" t="s">
         <v>2170</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>2171</v>
       </c>
       <c r="C473" s="3">
         <v>410</v>
@@ -15827,10 +15827,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="3" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C475" s="3">
         <v>23</v>
@@ -15838,10 +15838,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="27" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B477" s="27" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C477" s="3">
         <v>411</v>
@@ -15849,10 +15849,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="27" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B478" s="27" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="C478" s="3">
         <v>412</v>
@@ -15874,7 +15874,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C386" sqref="C386"/>
+      <selection pane="bottomRight" activeCell="D384" sqref="D384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="108" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D361" s="16" t="s">
         <v>2066</v>
@@ -28464,7 +28464,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="58" t="s">
-        <v>2167</v>
+        <v>2207</v>
       </c>
       <c r="D373" s="66" t="s">
         <v>2077</v>
@@ -28666,10 +28666,10 @@
         <v>1</v>
       </c>
       <c r="C379" s="30" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D379" s="30" t="s">
         <v>2195</v>
-      </c>
-      <c r="D379" s="30" t="s">
-        <v>2196</v>
       </c>
       <c r="G379" s="26">
         <v>413</v>
@@ -28687,7 +28687,7 @@
         <v>1617638400</v>
       </c>
       <c r="L379" s="30" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -28698,10 +28698,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="30" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D380" s="30" t="s">
         <v>2197</v>
-      </c>
-      <c r="D380" s="30" t="s">
-        <v>2198</v>
       </c>
       <c r="G380" s="26">
         <v>414</v>
@@ -28719,7 +28719,7 @@
         <v>1617638400</v>
       </c>
       <c r="L380" s="30" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -28730,10 +28730,10 @@
         <v>1</v>
       </c>
       <c r="C381" s="30" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D381" s="30" t="s">
         <v>2199</v>
-      </c>
-      <c r="D381" s="30" t="s">
-        <v>2200</v>
       </c>
       <c r="G381" s="26">
         <v>415</v>
@@ -28751,7 +28751,7 @@
         <v>1617638400</v>
       </c>
       <c r="L381" s="30" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -28762,10 +28762,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="30" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D382" s="30" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="G382" s="26">
         <v>416</v>
@@ -28783,7 +28783,7 @@
         <v>1617638400</v>
       </c>
       <c r="L382" s="30" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
   </sheetData>
@@ -32967,7 +32967,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E179" s="14">
         <v>2</v>
@@ -33022,7 +33022,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="8" customFormat="1">
@@ -33036,7 +33036,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="80" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E182" s="14">
         <v>2</v>
@@ -33045,7 +33045,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="15" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="8" customFormat="1">
@@ -33493,7 +33493,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="91" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E201" s="89">
         <v>2</v>
@@ -49029,7 +49029,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="93" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="H845" s="8"/>
       <c r="I845" s="8"/>
@@ -49095,7 +49095,7 @@
         <v>1032</v>
       </c>
       <c r="D848" s="93" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E848" s="92">
         <v>2</v>
@@ -49460,7 +49460,7 @@
         <v>1</v>
       </c>
       <c r="G862" s="10" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="8" customFormat="1">
@@ -49506,7 +49506,7 @@
         <v>2</v>
       </c>
       <c r="G864" s="10" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="H864" s="8"/>
       <c r="I864" s="8"/>
@@ -49916,7 +49916,7 @@
         <v>1142</v>
       </c>
       <c r="D881" s="10" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E881" s="8">
         <v>2</v>
@@ -49962,7 +49962,7 @@
         <v>1142</v>
       </c>
       <c r="D883" s="10" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E883" s="8">
         <v>5</v>
@@ -52699,7 +52699,7 @@
         <v>1142</v>
       </c>
       <c r="D999" s="9" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E999" s="9">
         <v>5</v>
@@ -52708,7 +52708,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="9" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -52719,7 +52719,7 @@
         <v>411</v>
       </c>
       <c r="C1000" s="49" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D1000" s="9">
         <v>0</v>
@@ -52731,7 +52731,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="49" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -52846,7 +52846,7 @@
         <v>1</v>
       </c>
       <c r="G1005" s="10" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1006" spans="1:7">
@@ -52915,7 +52915,7 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1009" spans="1:7">
@@ -52961,7 +52961,7 @@
         <v>1</v>
       </c>
       <c r="G1010" s="49" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -52984,7 +52984,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="10" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -53007,7 +53007,7 @@
         <v>1</v>
       </c>
       <c r="G1012" s="49" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -53030,7 +53030,7 @@
         <v>1</v>
       </c>
       <c r="G1013" s="49" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
   </sheetData>
@@ -53186,7 +53186,7 @@
         <v>884</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -53203,7 +53203,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1723</v>
@@ -53232,7 +53232,7 @@
         <v>884</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E8">
         <v>2</v>

--- a/config_4.6/permission_server_config.xlsx
+++ b/config_4.6/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -10134,10 +10134,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>actp_rank_ltqf_012_fqdr_rank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>福气达人--非cjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10151,6 +10147,10 @@
   </si>
   <si>
     <t>不是新玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_ltqf_011_fqdr_rank</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15872,10 +15872,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B480" s="3" t="s">
         <v>2208</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>2209</v>
       </c>
       <c r="C480" s="3">
         <v>417</v>
@@ -15893,11 +15893,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D359" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D372" sqref="D372"/>
+      <selection pane="bottomRight" activeCell="C372" sqref="C372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28453,10 +28453,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="58" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D372" s="66" t="s">
         <v>2206</v>
-      </c>
-      <c r="D372" s="66" t="s">
-        <v>2207</v>
       </c>
       <c r="E372" s="65"/>
       <c r="F372" s="65"/>
@@ -28822,7 +28822,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C992" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -53099,7 +53099,7 @@
         <v>1</v>
       </c>
       <c r="G1015" s="9" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
   </sheetData>
